--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="163">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
@@ -64,108 +61,111 @@
     <t>forced</t>
   </si>
   <si>
-    <t>disgusting</t>
+    <t>war</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>outbreak</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -175,340 +175,331 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>contest</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>prepared</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>solution</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>line</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>health</t>
+    <t>staff</t>
   </si>
   <si>
     <t>full</t>
   </si>
   <si>
-    <t>online</t>
+    <t>check</t>
   </si>
   <si>
     <t>hands</t>
   </si>
   <si>
-    <t>also</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>keep</t>
   </si>
   <si>
     <t>stores</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>everyone</t>
+    <t>day</t>
   </si>
   <si>
     <t>delivery</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>prices</t>
@@ -869,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +871,7 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -941,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -988,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1006,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>53</v>
@@ -1015,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1038,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1056,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1080,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1088,13 +1079,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1106,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1138,13 +1129,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.72</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1156,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K7">
-        <v>0.9347826086956522</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1180,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1188,13 +1179,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7191780821917808</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C8">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1206,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1230,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1238,13 +1229,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6923076923076923</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1256,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>0.9322033898305084</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1288,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1306,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1330,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1338,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1356,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>60</v>
@@ -1388,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1406,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K12">
-        <v>0.8611111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1430,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1438,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1456,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K13">
-        <v>0.8518518518518519</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1480,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1488,13 +1479,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1512,13 +1503,13 @@
         <v>63</v>
       </c>
       <c r="K14">
-        <v>0.8482142857142857</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1530,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1538,13 +1529,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5897435897435898</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1556,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K15">
-        <v>0.8297872340425532</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1580,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1588,13 +1579,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1606,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K16">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1630,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1638,13 +1629,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5789473684210527</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1662,13 +1653,13 @@
         <v>66</v>
       </c>
       <c r="K17">
-        <v>0.8166666666666667</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L17">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1680,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1688,7 +1679,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5769230769230769</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1706,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L18">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1730,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1738,13 +1729,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5641025641025641</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1756,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1780,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1788,13 +1779,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5483870967741935</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1806,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K20">
-        <v>0.8103448275862069</v>
+        <v>0.8125</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1830,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1838,13 +1829,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4814814814814815</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1856,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1880,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1888,13 +1879,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4705882352941176</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1906,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1930,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1938,13 +1929,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4594594594594595</v>
+        <v>0.4446601941747573</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1953,22 +1944,22 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K23">
-        <v>0.7676056338028169</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L23">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1980,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1988,13 +1979,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4429530201342282</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2006,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K24">
-        <v>0.7647058823529411</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2030,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2038,13 +2029,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.437984496124031</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C25">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2056,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K25">
-        <v>0.7619047619047619</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2080,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2088,13 +2079,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4333333333333333</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2106,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K26">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2130,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2138,13 +2129,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4324324324324325</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2156,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2180,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2188,13 +2179,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4133333333333333</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2206,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K28">
-        <v>0.7391304347826086</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2238,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4067796610169492</v>
+        <v>0.375</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2256,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K29">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="L29">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2280,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2288,13 +2279,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2306,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2330,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2338,13 +2329,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3777777777777778</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2356,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K31">
-        <v>0.7</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2380,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2388,13 +2379,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3658536585365854</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2406,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K32">
-        <v>0.6842105263157895</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2430,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2438,13 +2429,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2456,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K33">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2480,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2488,13 +2479,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.328042328042328</v>
+        <v>0.35</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2506,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K34">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2530,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2538,13 +2529,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3272727272727273</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2556,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K35">
-        <v>0.6702127659574468</v>
+        <v>0.6579634464751958</v>
       </c>
       <c r="L35">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="M35">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2580,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2588,13 +2579,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3246753246753247</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2606,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K36">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2630,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2638,13 +2629,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2711864406779661</v>
+        <v>0.3</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2656,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K37">
-        <v>0.660574412532637</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L37">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2680,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2688,13 +2679,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2678571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2706,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K38">
-        <v>0.6363636363636364</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2730,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2738,13 +2729,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.253968253968254</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2756,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K39">
-        <v>0.625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2788,13 +2779,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2375</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2806,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K40">
-        <v>0.6176470588235294</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2830,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2838,37 +2829,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1666666666666667</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K41">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2880,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2888,37 +2879,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.103030303030303</v>
+        <v>0.02826086956521739</v>
       </c>
       <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
         <v>17</v>
       </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
       <c r="E42">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="F42">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2930,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2938,37 +2929,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01090442591404747</v>
+        <v>0.009027081243731194</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="E43">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="F43">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3084</v>
+        <v>1976</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K43">
-        <v>0.5909090909090909</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2980,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2988,37 +2979,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0091324200913242</v>
+        <v>0.007712082262210797</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="E44">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="F44">
-        <v>0.08999999999999997</v>
+        <v>0.21</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1953</v>
+        <v>3088</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K44">
-        <v>0.5852941176470589</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L44">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3030,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3038,37 +3029,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.008730691739422432</v>
+        <v>0.00740990232401482</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E45">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F45">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2952</v>
+        <v>2947</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K45">
-        <v>0.5806451612903226</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3080,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3114,13 +3105,13 @@
         <v>96</v>
       </c>
       <c r="K47">
-        <v>0.575</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3132,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3140,13 +3131,13 @@
         <v>97</v>
       </c>
       <c r="K48">
-        <v>0.5714285714285714</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3158,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -3169,10 +3160,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3184,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -3192,13 +3183,13 @@
         <v>99</v>
       </c>
       <c r="K50">
-        <v>0.5661016949152542</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L50">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3210,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -3218,13 +3209,13 @@
         <v>100</v>
       </c>
       <c r="K51">
-        <v>0.550561797752809</v>
+        <v>0.55</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3236,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -3244,13 +3235,13 @@
         <v>101</v>
       </c>
       <c r="K52">
-        <v>0.5384615384615384</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3262,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -3270,13 +3261,13 @@
         <v>102</v>
       </c>
       <c r="K53">
-        <v>0.5104602510460251</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L53">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3288,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -3296,13 +3287,13 @@
         <v>103</v>
       </c>
       <c r="K54">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3314,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3322,13 +3313,13 @@
         <v>104</v>
       </c>
       <c r="K55">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3340,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3348,13 +3339,13 @@
         <v>105</v>
       </c>
       <c r="K56">
-        <v>0.4923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3366,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3374,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="K57">
-        <v>0.4857142857142857</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="M57">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3392,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3400,13 +3391,13 @@
         <v>107</v>
       </c>
       <c r="K58">
-        <v>0.4657534246575342</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3418,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3426,13 +3417,13 @@
         <v>108</v>
       </c>
       <c r="K59">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="L59">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3444,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3452,25 +3443,25 @@
         <v>109</v>
       </c>
       <c r="K60">
-        <v>0.4358974358974359</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L60">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3478,13 +3469,13 @@
         <v>110</v>
       </c>
       <c r="K61">
-        <v>0.4285714285714285</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3496,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3504,13 +3495,13 @@
         <v>111</v>
       </c>
       <c r="K62">
-        <v>0.4193548387096774</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3522,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3530,13 +3521,13 @@
         <v>112</v>
       </c>
       <c r="K63">
-        <v>0.4098360655737705</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L63">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3548,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3556,13 +3547,13 @@
         <v>113</v>
       </c>
       <c r="K64">
-        <v>0.4042553191489361</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3574,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3582,13 +3573,13 @@
         <v>114</v>
       </c>
       <c r="K65">
-        <v>0.3728813559322034</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3600,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3608,13 +3599,13 @@
         <v>115</v>
       </c>
       <c r="K66">
-        <v>0.3389830508474576</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3626,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3634,13 +3625,13 @@
         <v>116</v>
       </c>
       <c r="K67">
-        <v>0.3265306122448979</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3652,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3660,25 +3651,25 @@
         <v>117</v>
       </c>
       <c r="K68">
-        <v>0.3260869565217391</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3686,13 +3677,13 @@
         <v>118</v>
       </c>
       <c r="K69">
-        <v>0.2916666666666667</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3704,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3712,13 +3703,13 @@
         <v>119</v>
       </c>
       <c r="K70">
-        <v>0.2283464566929134</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3730,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3738,13 +3729,13 @@
         <v>120</v>
       </c>
       <c r="K71">
-        <v>0.2280701754385965</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3756,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3764,25 +3755,25 @@
         <v>121</v>
       </c>
       <c r="K72">
-        <v>0.2105263157894737</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M72">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>75</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3790,22 +3781,22 @@
         <v>122</v>
       </c>
       <c r="K73">
-        <v>0.2076923076923077</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="L73">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M73">
         <v>28</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
         <v>103</v>
@@ -3816,13 +3807,13 @@
         <v>123</v>
       </c>
       <c r="K74">
-        <v>0.1973684210526316</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3834,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3842,25 +3833,25 @@
         <v>124</v>
       </c>
       <c r="K75">
-        <v>0.1798561151079137</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="L75">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3868,25 +3859,25 @@
         <v>125</v>
       </c>
       <c r="K76">
-        <v>0.1758241758241758</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3894,25 +3885,25 @@
         <v>126</v>
       </c>
       <c r="K77">
-        <v>0.1752577319587629</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L77">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3920,13 +3911,13 @@
         <v>127</v>
       </c>
       <c r="K78">
-        <v>0.1635220125786163</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3938,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3946,13 +3937,13 @@
         <v>128</v>
       </c>
       <c r="K79">
-        <v>0.1572327044025157</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L79">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3964,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3972,13 +3963,13 @@
         <v>129</v>
       </c>
       <c r="K80">
-        <v>0.1533742331288344</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3990,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>138</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3998,25 +3989,25 @@
         <v>130</v>
       </c>
       <c r="K81">
-        <v>0.1530612244897959</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -4024,25 +4015,25 @@
         <v>131</v>
       </c>
       <c r="K82">
-        <v>0.1495327102803738</v>
+        <v>0.1569767441860465</v>
       </c>
       <c r="L82">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M82">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N82">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -4050,13 +4041,13 @@
         <v>132</v>
       </c>
       <c r="K83">
-        <v>0.1466346153846154</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="L83">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4068,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>355</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -4076,25 +4067,25 @@
         <v>133</v>
       </c>
       <c r="K84">
-        <v>0.1449275362318841</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>118</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -4102,13 +4093,13 @@
         <v>134</v>
       </c>
       <c r="K85">
-        <v>0.1395348837209302</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L85">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M85">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4120,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>185</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -4128,25 +4119,25 @@
         <v>135</v>
       </c>
       <c r="K86">
-        <v>0.1354166666666667</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L86">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M86">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N86">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>83</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -4154,25 +4145,25 @@
         <v>136</v>
       </c>
       <c r="K87">
-        <v>0.1351351351351351</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M87">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -4180,25 +4171,25 @@
         <v>137</v>
       </c>
       <c r="K88">
-        <v>0.1296296296296296</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N88">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -4206,25 +4197,25 @@
         <v>138</v>
       </c>
       <c r="K89">
-        <v>0.1287128712871287</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L89">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M89">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>88</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -4232,25 +4223,25 @@
         <v>139</v>
       </c>
       <c r="K90">
-        <v>0.1262135922330097</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L90">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M90">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N90">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -4258,25 +4249,25 @@
         <v>140</v>
       </c>
       <c r="K91">
-        <v>0.1261261261261261</v>
+        <v>0.125</v>
       </c>
       <c r="L91">
         <v>14</v>
       </c>
       <c r="M91">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N91">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -4284,25 +4275,25 @@
         <v>141</v>
       </c>
       <c r="K92">
-        <v>0.1240875912408759</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M92">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -4310,25 +4301,25 @@
         <v>142</v>
       </c>
       <c r="K93">
-        <v>0.1220930232558139</v>
+        <v>0.122060470324748</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>151</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -4336,13 +4327,13 @@
         <v>143</v>
       </c>
       <c r="K94">
-        <v>0.1150442477876106</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4354,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -4362,25 +4353,25 @@
         <v>144</v>
       </c>
       <c r="K95">
-        <v>0.1138211382113821</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L95">
         <v>14</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N95">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -4388,25 +4379,25 @@
         <v>145</v>
       </c>
       <c r="K96">
-        <v>0.1136363636363636</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="L96">
         <v>15</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N96">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -4414,25 +4405,25 @@
         <v>146</v>
       </c>
       <c r="K97">
-        <v>0.1111111111111111</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L97">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M97">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N97">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>288</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -4440,25 +4431,25 @@
         <v>147</v>
       </c>
       <c r="K98">
-        <v>0.1092896174863388</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M98">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N98">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -4466,25 +4457,25 @@
         <v>148</v>
       </c>
       <c r="K99">
-        <v>0.1085011185682327</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="L99">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M99">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>797</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -4492,25 +4483,25 @@
         <v>149</v>
       </c>
       <c r="K100">
-        <v>0.1036585365853658</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="L100">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N100">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>147</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -4518,25 +4509,25 @@
         <v>150</v>
       </c>
       <c r="K101">
-        <v>0.1022727272727273</v>
+        <v>0.08794788273615635</v>
       </c>
       <c r="L101">
         <v>27</v>
       </c>
       <c r="M101">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N101">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O101">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>237</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -4544,25 +4535,25 @@
         <v>151</v>
       </c>
       <c r="K102">
-        <v>0.1</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="L102">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="M102">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>207</v>
+        <v>790</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -4570,25 +4561,25 @@
         <v>152</v>
       </c>
       <c r="K103">
-        <v>0.09523809523809523</v>
+        <v>0.0865533230293663</v>
       </c>
       <c r="L103">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M103">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>133</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -4596,13 +4587,13 @@
         <v>153</v>
       </c>
       <c r="K104">
-        <v>0.08766233766233766</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="L104">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M104">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -4614,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -4622,25 +4613,25 @@
         <v>154</v>
       </c>
       <c r="K105">
-        <v>0.08458864426419467</v>
+        <v>0.08546059933407325</v>
       </c>
       <c r="L105">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M105">
         <v>77</v>
       </c>
       <c r="N105">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>790</v>
+        <v>824</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -4648,51 +4639,51 @@
         <v>155</v>
       </c>
       <c r="K106">
-        <v>0.08213096559378469</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="L106">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>827</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>0.08094117647058824</v>
+        <v>0.07011764705882353</v>
       </c>
       <c r="L107">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M107">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="N107">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O107">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1953</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -4700,143 +4691,143 @@
         <v>156</v>
       </c>
       <c r="K108">
-        <v>0.07894736842105263</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="L108">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M108">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N108">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>595</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>0.07010309278350516</v>
+        <v>0.04473257698541329</v>
       </c>
       <c r="L109">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="M109">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="N109">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O109">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>451</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K110">
-        <v>0.05882352941176471</v>
+        <v>0.04460966542750929</v>
       </c>
       <c r="L110">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M110">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N110">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="O110">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>336</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K111">
-        <v>0.05555555555555555</v>
+        <v>0.04322766570605188</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M111">
         <v>17</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>289</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K112">
-        <v>0.0498220640569395</v>
+        <v>0.04262877442273535</v>
       </c>
       <c r="L112">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M112">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>267</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K113">
-        <v>0.04597701149425287</v>
+        <v>0.04178272980501393</v>
       </c>
       <c r="L113">
+        <v>15</v>
+      </c>
+      <c r="M113">
         <v>16</v>
-      </c>
-      <c r="M113">
-        <v>17</v>
       </c>
       <c r="N113">
         <v>0.9399999999999999</v>
@@ -4848,163 +4839,85 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K114">
-        <v>0.04261954261954262</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="L114">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M114">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N114">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O114">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>0.04186952288218111</v>
+        <v>0.02801384954359459</v>
       </c>
       <c r="L115">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M115">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="N115">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="O115">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>2952</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K116">
-        <v>0.03730017761989343</v>
+        <v>0.0198961937716263</v>
       </c>
       <c r="L116">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M116">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N116">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="O116">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K117">
-        <v>0.02767527675276753</v>
-      </c>
-      <c r="L117">
-        <v>15</v>
-      </c>
-      <c r="M117">
-        <v>18</v>
-      </c>
-      <c r="N117">
-        <v>0.83</v>
-      </c>
-      <c r="O117">
-        <v>0.17</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K118">
-        <v>0.02620776760341017</v>
-      </c>
-      <c r="L118">
-        <v>83</v>
-      </c>
-      <c r="M118">
-        <v>117</v>
-      </c>
-      <c r="N118">
-        <v>0.71</v>
-      </c>
-      <c r="O118">
-        <v>0.29</v>
-      </c>
-      <c r="P118" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K119">
-        <v>0.02430555555555556</v>
-      </c>
-      <c r="L119">
-        <v>28</v>
-      </c>
-      <c r="M119">
-        <v>37</v>
-      </c>
-      <c r="N119">
-        <v>0.76</v>
-      </c>
-      <c r="O119">
-        <v>0.24</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>1124</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
